--- a/timetables.xlsx
+++ b/timetables.xlsx
@@ -39,12 +39,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33AA33"/>
-        <bgColor rgb="FF33AA33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFAA3333"/>
         <bgColor rgb="FFAA3333"/>
       </patternFill>
@@ -53,6 +47,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3333AA"/>
         <bgColor rgb="FF3333AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33AA33"/>
+        <bgColor rgb="FF33AA33"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,8 +71,8 @@
   <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -449,12 +449,12 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Вася Геометрия 6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Боря Алгебра 6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -479,9 +479,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Боря Алгебра 6</t>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Петя Математический анализ 6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -511,9 +511,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Петя Математический анализ 6</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1375,9 +1375,9 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1426,14 +1426,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Боря Алгебра 6</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2194,9 +2194,9 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2354,9 +2354,9 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>Вася Геометрия 6</t>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2405,14 +2405,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Боря Алгебра 6</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3013,9 +3013,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3173,9 +3173,9 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>Вася Геометрия 6</t>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3384,14 +3384,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>Боря Алгебра 6</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3832,9 +3832,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3992,9 +3992,9 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>Вася Геометрия 6</t>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4365,71 +4365,71 @@
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
+          <t>Вася Геометрия 6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
           <t>Боря Алгебра 6</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Петя Математический анализ 6</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>пусто</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4811,9 +4811,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>Вася Геометрия 6</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5296,9 +5296,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Вася Геометрия 7</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">

--- a/timetables.xlsx
+++ b/timetables.xlsx
@@ -39,24 +39,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC00"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF969696"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
         <bgColor rgb="FF008000"/>
       </patternFill>
@@ -75,14 +57,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066FF"/>
+        <bgColor rgb="FF0066FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCC00FF"/>
         <bgColor rgb="FFCC00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0066FF"/>
-        <bgColor rgb="FF0066FF"/>
+        <fgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -111,6 +105,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor rgb="FFFF8080"/>
       </patternFill>
@@ -119,6 +119,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF339966"/>
         <bgColor rgb="FF339966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -137,12 +143,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -197,28 +197,28 @@
   <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="22" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="23" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="22" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="25" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -596,15 +596,15 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Гриц СР 6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия2 7</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут1 8</t>
         </is>
@@ -626,17 +626,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут2 8</t>
         </is>
@@ -670,17 +670,17 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 9</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
+          <t>Настя История1 8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -788,15 +788,15 @@
     <row r="10">
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Инна Словесность2 6</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия1 7</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Гриц Физика 8</t>
         </is>
@@ -811,41 +811,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 6</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность2 7</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Денис Матан 9</t>
-        </is>
-      </c>
-      <c r="F11" s="13" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -919,9 +919,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -929,9 +929,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -939,73 +939,73 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D16" s="15" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Оля Algebra 7</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 10</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык2 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность2 7</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Настя История1 6</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность1 7</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 8</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра 9</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 10</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -1074,24 +1074,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгоритмика 6</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Таня Биология 7</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Гриц География 8</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>Слава физика 9</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1111,59 +1111,59 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D22" s="19" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>Катя История2 7</t>
+        </is>
+      </c>
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="20" t="inlineStr">
-        <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F22" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G22" s="19" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность1 7</t>
-        </is>
-      </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 7</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Коля Геометрия 8</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 9</t>
         </is>
       </c>
-      <c r="F23" s="14" t="inlineStr">
+      <c r="F23" s="19" t="inlineStr">
         <is>
           <t>ЮрНик Физика 10</t>
         </is>
       </c>
-      <c r="G23" s="21" t="inlineStr">
+      <c r="G23" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 11</t>
         </is>
@@ -1234,96 +1234,96 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="22" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия2 7</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>Андрей Проект 8</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 6</t>
+        </is>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Инна Русский язык 9</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E28" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F28" s="17" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="F28" s="22" t="inlineStr">
+        <is>
+          <t>Н астя Английский 10</t>
+        </is>
+      </c>
+      <c r="G28" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D29" s="18" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 8</t>
         </is>
       </c>
-      <c r="E29" s="21" t="inlineStr">
+      <c r="E29" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G29" s="23" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>Настя История 10</t>
+        </is>
+      </c>
+      <c r="G29" s="17" t="inlineStr">
         <is>
           <t>Царь Литература 11</t>
         </is>
@@ -1394,24 +1394,24 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Гриц СР 6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1426,61 +1426,61 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 7</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E34" s="18" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность2 8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 11</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E35" s="23" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
+      <c r="B35" s="23" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E35" s="18" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Таня Биология 10</t>
         </is>
       </c>
       <c r="G35" s="24" t="inlineStr">
@@ -1575,15 +1575,15 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Гриц СР 6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия2 7</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут1 8</t>
         </is>
@@ -1605,24 +1605,24 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут2 8</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1649,17 +1649,17 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 9</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
+          <t>Настя История1 8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1767,15 +1767,15 @@
     <row r="10">
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Инна Словесность2 6</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия1 7</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Гриц Физика 8</t>
         </is>
@@ -1790,41 +1790,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 6</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность2 7</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Денис Матан 9</t>
-        </is>
-      </c>
-      <c r="F11" s="13" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -1898,9 +1898,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1908,9 +1908,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1918,73 +1918,73 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D16" s="15" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Оля Algebra 7</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 10</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык2 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность2 7</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Настя История1 6</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность1 7</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 8</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра 9</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 10</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -2053,24 +2053,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгоритмика 6</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Таня Биология 7</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Гриц География 8</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>Слава физика 9</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2095,54 +2095,54 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="D22" s="19" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="20" t="inlineStr">
-        <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F22" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G22" s="19" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность1 7</t>
-        </is>
-      </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 7</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Коля Геометрия 8</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 9</t>
         </is>
       </c>
-      <c r="F23" s="14" t="inlineStr">
+      <c r="F23" s="19" t="inlineStr">
         <is>
           <t>ЮрНик Физика 10</t>
         </is>
       </c>
-      <c r="G23" s="21" t="inlineStr">
+      <c r="G23" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 11</t>
         </is>
@@ -2213,96 +2213,96 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="22" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия2 7</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>Андрей Проект 8</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 6</t>
+        </is>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Инна Русский язык 9</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E28" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F28" s="17" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="F28" s="22" t="inlineStr">
+        <is>
+          <t>Н астя Английский 10</t>
+        </is>
+      </c>
+      <c r="G28" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D29" s="18" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 8</t>
         </is>
       </c>
-      <c r="E29" s="21" t="inlineStr">
+      <c r="E29" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G29" s="23" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>Настя История 10</t>
+        </is>
+      </c>
+      <c r="G29" s="17" t="inlineStr">
         <is>
           <t>Царь Литература 11</t>
         </is>
@@ -2373,24 +2373,24 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Гриц СР 6</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>Катя История2 7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2405,61 +2405,61 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 7</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E34" s="18" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность2 8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 11</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E35" s="23" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
+      <c r="B35" s="23" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E35" s="18" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Таня Биология 10</t>
         </is>
       </c>
       <c r="G35" s="24" t="inlineStr">
@@ -2554,15 +2554,15 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Гриц СР 6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия2 7</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут1 8</t>
         </is>
@@ -2584,17 +2584,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут2 8</t>
         </is>
@@ -2628,17 +2628,17 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 9</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
+          <t>Настя История1 8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2717,9 +2717,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Катя История2 7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2746,15 +2746,15 @@
     <row r="10">
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Инна Словесность2 6</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия1 7</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Гриц Физика 8</t>
         </is>
@@ -2769,41 +2769,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 6</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность2 7</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Денис Матан 9</t>
-        </is>
-      </c>
-      <c r="F11" s="13" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -2877,9 +2877,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2887,9 +2887,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2897,73 +2897,73 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D16" s="15" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Оля Algebra 7</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 10</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык2 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность2 7</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Настя История1 6</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность1 7</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 8</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра 9</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 10</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -3032,24 +3032,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгоритмика 6</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Таня Биология 7</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Гриц География 8</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>Слава физика 9</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3074,54 +3074,54 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="D22" s="19" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="20" t="inlineStr">
-        <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F22" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G22" s="19" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность1 7</t>
-        </is>
-      </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 7</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Коля Геометрия 8</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 9</t>
         </is>
       </c>
-      <c r="F23" s="14" t="inlineStr">
+      <c r="F23" s="19" t="inlineStr">
         <is>
           <t>ЮрНик Физика 10</t>
         </is>
       </c>
-      <c r="G23" s="21" t="inlineStr">
+      <c r="G23" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 11</t>
         </is>
@@ -3192,96 +3192,96 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="22" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия2 7</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>Андрей Проект 8</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 6</t>
+        </is>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Инна Русский язык 9</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E28" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F28" s="17" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="F28" s="22" t="inlineStr">
+        <is>
+          <t>Н астя Английский 10</t>
+        </is>
+      </c>
+      <c r="G28" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D29" s="18" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 8</t>
         </is>
       </c>
-      <c r="E29" s="21" t="inlineStr">
+      <c r="E29" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G29" s="23" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>Настя История 10</t>
+        </is>
+      </c>
+      <c r="G29" s="17" t="inlineStr">
         <is>
           <t>Царь Литература 11</t>
         </is>
@@ -3352,24 +3352,24 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
-        </is>
-      </c>
-      <c r="E33" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Гриц СР 6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3384,61 +3384,61 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 7</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E34" s="18" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность2 8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 11</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E35" s="23" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
+      <c r="B35" s="23" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E35" s="18" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Таня Биология 10</t>
         </is>
       </c>
       <c r="G35" s="24" t="inlineStr">
@@ -3533,22 +3533,22 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Гриц СР 6</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия2 7</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут1 8</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3563,17 +3563,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут2 8</t>
         </is>
@@ -3607,17 +3607,17 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 9</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
+          <t>Настя История1 8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3725,15 +3725,15 @@
     <row r="10">
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Инна Словесность2 6</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия1 7</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Гриц Физика 8</t>
         </is>
@@ -3748,41 +3748,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 6</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность2 7</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Денис Матан 9</t>
-        </is>
-      </c>
-      <c r="F11" s="13" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -3856,9 +3856,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3866,9 +3866,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3876,73 +3876,73 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D16" s="15" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Оля Algebra 7</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 10</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык2 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность2 7</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Настя История1 6</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность1 7</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 8</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра 9</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 10</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -4011,24 +4011,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгоритмика 6</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Таня Биология 7</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Гриц География 8</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>Слава физика 9</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4048,59 +4048,59 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D22" s="19" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>Катя История2 7</t>
+        </is>
+      </c>
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="20" t="inlineStr">
-        <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F22" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G22" s="19" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность1 7</t>
-        </is>
-      </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 7</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Коля Геометрия 8</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 9</t>
         </is>
       </c>
-      <c r="F23" s="14" t="inlineStr">
+      <c r="F23" s="19" t="inlineStr">
         <is>
           <t>ЮрНик Физика 10</t>
         </is>
       </c>
-      <c r="G23" s="21" t="inlineStr">
+      <c r="G23" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 11</t>
         </is>
@@ -4171,96 +4171,96 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="22" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия2 7</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>Андрей Проект 8</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 6</t>
+        </is>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Инна Русский язык 9</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E28" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F28" s="17" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="F28" s="22" t="inlineStr">
+        <is>
+          <t>Н астя Английский 10</t>
+        </is>
+      </c>
+      <c r="G28" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D29" s="18" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 8</t>
         </is>
       </c>
-      <c r="E29" s="21" t="inlineStr">
+      <c r="E29" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G29" s="23" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>Настя История 10</t>
+        </is>
+      </c>
+      <c r="G29" s="17" t="inlineStr">
         <is>
           <t>Царь Литература 11</t>
         </is>
@@ -4331,24 +4331,24 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Гриц СР 6</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4363,61 +4363,61 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 7</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E34" s="18" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 11</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E35" s="23" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
+      <c r="B35" s="23" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность2 8</t>
+        </is>
+      </c>
+      <c r="E35" s="18" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Таня Биология 10</t>
         </is>
       </c>
       <c r="G35" s="24" t="inlineStr">
@@ -4512,15 +4512,15 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Гриц СР 6</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия2 7</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут1 8</t>
         </is>
@@ -4542,17 +4542,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Ася Диспут2 8</t>
         </is>
@@ -4586,17 +4586,17 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 9</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
+          <t>Настя История1 8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -4704,15 +4704,15 @@
     <row r="10">
       <c r="B10" s="6" t="inlineStr">
         <is>
-          <t>Инна Словесность2 6</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Оля Геометрия1 7</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Гриц Физика 8</t>
         </is>
@@ -4727,41 +4727,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 6</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность2 7</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>Денис Матан 9</t>
-        </is>
-      </c>
-      <c r="F11" s="13" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -4845,9 +4845,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -4855,73 +4855,73 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D16" s="15" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Оля Algebra 7</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="13" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 10</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>Соня Русский язык2 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность2 7</t>
-        </is>
-      </c>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Настя История1 6</t>
+        </is>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Маша Словесность1 7</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 8</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Коля Алгебра 9</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 10</t>
         </is>
       </c>
-      <c r="G17" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -4990,24 +4990,24 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="15" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгоритмика 6</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Таня Биология 7</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Гриц География 8</t>
+        </is>
+      </c>
+      <c r="E21" s="15" t="inlineStr">
+        <is>
+          <t>Слава физика 9</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5032,54 +5032,54 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="D22" s="19" t="inlineStr">
+      <c r="D22" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="20" t="inlineStr">
-        <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E22" s="17" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F22" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G22" s="19" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="19" t="inlineStr">
+      <c r="B23" s="16" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C23" s="17" t="inlineStr">
-        <is>
-          <t>Маша Словесность1 7</t>
-        </is>
-      </c>
-      <c r="D23" s="16" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 7</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>Коля Геометрия 8</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 9</t>
         </is>
       </c>
-      <c r="F23" s="14" t="inlineStr">
+      <c r="F23" s="19" t="inlineStr">
         <is>
           <t>ЮрНик Физика 10</t>
         </is>
       </c>
-      <c r="G23" s="21" t="inlineStr">
+      <c r="G23" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 11</t>
         </is>
@@ -5150,96 +5150,96 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="22" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Оля Геометрия2 7</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E27" s="6" t="inlineStr">
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="inlineStr">
+        <is>
+          <t>Андрей Проект 8</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F27" s="10" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>Настя История2 6</t>
+        </is>
+      </c>
+      <c r="C28" s="16" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D28" s="20" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Инна Русский язык 9</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C28" s="19" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="9" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E28" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F28" s="17" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G28" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="F28" s="22" t="inlineStr">
+        <is>
+          <t>Н астя Английский 10</t>
+        </is>
+      </c>
+      <c r="G28" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D29" s="18" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="13" t="inlineStr">
         <is>
           <t>Алекс Алгебра 8</t>
         </is>
       </c>
-      <c r="E29" s="21" t="inlineStr">
+      <c r="E29" s="20" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G29" s="23" t="inlineStr">
+      <c r="F29" s="7" t="inlineStr">
+        <is>
+          <t>Настя История 10</t>
+        </is>
+      </c>
+      <c r="G29" s="17" t="inlineStr">
         <is>
           <t>Царь Литература 11</t>
         </is>
@@ -5310,24 +5310,24 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Гриц СР 6</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>Катя История2 7</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="inlineStr">
+        <is>
+          <t>Денис спк матан 9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5342,61 +5342,61 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="16" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="B34" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
         <is>
           <t>Гурам Английский 7</t>
         </is>
       </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E34" s="18" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F34" s="12" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F34" s="18" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G34" s="14" t="inlineStr">
+        <is>
+          <t>Резеда Английский 11</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="21" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E35" s="23" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F35" s="8" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
+      <c r="B35" s="23" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность2 8</t>
+        </is>
+      </c>
+      <c r="E35" s="18" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>Таня Биология 10</t>
         </is>
       </c>
       <c r="G35" s="24" t="inlineStr">

--- a/timetables.xlsx
+++ b/timetables.xlsx
@@ -30,12 +30,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="28">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor rgb="FFCC00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -45,14 +75,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFF99CC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -69,44 +105,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC00FF"/>
-        <bgColor rgb="FFCC00FF"/>
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CC00"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF969696"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFFF0066"/>
+        <bgColor rgb="FFFF0066"/>
       </patternFill>
     </fill>
     <fill>
@@ -129,8 +135,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9958B"/>
-        <bgColor rgb="FFF9958B"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -141,14 +147,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FFF9958B"/>
+        <bgColor rgb="FFF9958B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF996633"/>
-        <bgColor rgb="FF996633"/>
+        <fgColor rgb="FF9999FF"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF991500"/>
+        <bgColor rgb="FF991500"/>
       </patternFill>
     </fill>
     <fill>
@@ -159,14 +171,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF991500"/>
-        <bgColor rgb="FF991500"/>
+        <fgColor rgb="FFAAAAAA"/>
+        <bgColor rgb="FFAAAAAA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0066"/>
-        <bgColor rgb="FFFF0066"/>
+        <fgColor rgb="FF996633"/>
+        <bgColor rgb="FF996633"/>
       </patternFill>
     </fill>
     <fill>
@@ -194,32 +206,34 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="26" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="22" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="23" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="25" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="27" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="23" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="25" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -596,91 +610,91 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Таня Биология 6</t>
+          <t>Настя 6История2 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Оля Геометрия2 7</t>
+          <t>Ася Диспут2 7</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Ася Диспут1 8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 10</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 11</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Ася Диспут2 8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 7</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 8</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 9</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык2 11</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Лена Технология 6</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Катя История1 7</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 6</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>Гриц География 7</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 9</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История2 10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -754,56 +768,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B10" s="16" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский2 7</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 8</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -811,41 +825,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 11</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 6</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 10</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 11</t>
         </is>
       </c>
     </row>
@@ -914,98 +928,98 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык1 11</t>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>Оля Геометрия 7</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История1 8</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 10</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык2 11</t>
+      <c r="B16" s="22" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
+        </is>
+      </c>
+      <c r="G16" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 6</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 10</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 11</t>
         </is>
       </c>
     </row>
@@ -1074,98 +1088,98 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
         <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 10</t>
+        </is>
+      </c>
+      <c r="G21" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра2 11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>Лена Технология 6</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 7</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G22" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 6</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Коля Геометрия 8</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 10</t>
-        </is>
-      </c>
-      <c r="G23" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 11</t>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 8</t>
+        </is>
+      </c>
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 11</t>
         </is>
       </c>
     </row>
@@ -1234,98 +1248,98 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность2 6</t>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F27" s="10" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Ася МХК 7</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 8</t>
+        </is>
+      </c>
+      <c r="E27" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 10</t>
+        </is>
+      </c>
+      <c r="G27" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра1 11</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C28" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F28" s="22" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G28" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика1 8</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F28" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
+        </is>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 8</t>
-        </is>
-      </c>
-      <c r="E29" s="20" t="inlineStr">
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 8</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
-        </is>
-      </c>
-      <c r="G29" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 11</t>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
+        </is>
+      </c>
+      <c r="G29" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -1394,9 +1408,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Гриц СР 6</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1409,83 +1423,83 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="18" t="inlineStr">
+      <c r="E33" s="23" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E34" s="23" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="21" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 7</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F34" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
-        </is>
-      </c>
-      <c r="G34" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="23" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E35" s="18" t="inlineStr">
-        <is>
-          <t>Денис Мататематический анализ 9</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G35" s="24" t="inlineStr">
-        <is>
-          <t>Володя Алгебра 11</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F35" s="23" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -1575,91 +1589,91 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Таня Биология 6</t>
+          <t>Настя 6История2 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Оля Геометрия2 7</t>
+          <t>Ася Диспут2 7</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Ася Диспут1 8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 10</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 11</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Ася Диспут2 8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 7</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 8</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 9</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык2 11</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Лена Технология 6</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Катя История1 7</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 6</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>Гриц География 7</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 9</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История2 10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1733,56 +1747,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B10" s="16" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 7</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 8</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1790,41 +1804,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 11</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 6</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 10</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 11</t>
         </is>
       </c>
     </row>
@@ -1893,98 +1907,98 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык1 11</t>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>Оля Геометрия 7</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История1 8</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 10</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык2 11</t>
+      <c r="B16" s="22" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
+        </is>
+      </c>
+      <c r="G16" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 6</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 10</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 11</t>
         </is>
       </c>
     </row>
@@ -2053,98 +2067,98 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
         <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 10</t>
+        </is>
+      </c>
+      <c r="G21" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра2 11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>Лена Технология 6</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский2 7</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G22" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 6</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Коля Геометрия 8</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 10</t>
-        </is>
-      </c>
-      <c r="G23" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 11</t>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 8</t>
+        </is>
+      </c>
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 11</t>
         </is>
       </c>
     </row>
@@ -2213,98 +2227,98 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность2 6</t>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F27" s="10" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Ася МХК 7</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 8</t>
+        </is>
+      </c>
+      <c r="E27" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 10</t>
+        </is>
+      </c>
+      <c r="G27" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра1 11</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C28" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F28" s="22" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G28" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика1 8</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F28" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
+        </is>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 8</t>
-        </is>
-      </c>
-      <c r="E29" s="20" t="inlineStr">
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 8</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
-        </is>
-      </c>
-      <c r="G29" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 11</t>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
+        </is>
+      </c>
+      <c r="G29" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -2373,14 +2387,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Гриц СР 6</t>
-        </is>
-      </c>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2388,83 +2402,83 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="18" t="inlineStr">
+      <c r="E33" s="23" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E34" s="23" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="21" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 7</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F34" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
-        </is>
-      </c>
-      <c r="G34" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="23" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E35" s="18" t="inlineStr">
-        <is>
-          <t>Денис Мататематический анализ 9</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G35" s="24" t="inlineStr">
-        <is>
-          <t>Володя Алгебра 11</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F35" s="23" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -2554,91 +2568,91 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Таня Биология 6</t>
+          <t>Настя 6История2 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Оля Геометрия2 7</t>
+          <t>Ася Диспут2 7</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Ася Диспут1 8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 10</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 11</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Ася Диспут2 8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 7</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 8</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 9</t>
+        </is>
+      </c>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык2 11</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Лена Технология 6</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Катя История1 7</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 6</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>Гриц География 7</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 9</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История2 10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2712,56 +2726,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B10" s="16" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский2 7</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 8</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2769,41 +2783,41 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 11</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 6</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 10</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 11</t>
         </is>
       </c>
     </row>
@@ -2872,98 +2886,98 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык1 11</t>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>Оля Геометрия 7</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История1 8</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 10</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык2 11</t>
+      <c r="B16" s="22" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
+        </is>
+      </c>
+      <c r="G16" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 6</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 10</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 11</t>
         </is>
       </c>
     </row>
@@ -3032,98 +3046,98 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
         <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 10</t>
+        </is>
+      </c>
+      <c r="G21" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра2 11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>Лена Технология 6</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 7</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G22" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 6</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Коля Геометрия 8</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 10</t>
-        </is>
-      </c>
-      <c r="G23" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 11</t>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 8</t>
+        </is>
+      </c>
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 11</t>
         </is>
       </c>
     </row>
@@ -3192,98 +3206,98 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность2 6</t>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F27" s="10" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Ася МХК 7</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 8</t>
+        </is>
+      </c>
+      <c r="E27" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 10</t>
+        </is>
+      </c>
+      <c r="G27" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра1 11</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C28" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F28" s="22" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G28" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика1 8</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F28" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
+        </is>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 8</t>
-        </is>
-      </c>
-      <c r="E29" s="20" t="inlineStr">
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 8</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
-        </is>
-      </c>
-      <c r="G29" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 11</t>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
+        </is>
+      </c>
+      <c r="G29" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -3352,9 +3366,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Гриц СР 6</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3367,83 +3381,83 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="18" t="inlineStr">
+      <c r="E33" s="23" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E34" s="23" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="21" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 7</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F34" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
-        </is>
-      </c>
-      <c r="G34" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="23" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E35" s="18" t="inlineStr">
-        <is>
-          <t>Денис Мататематический анализ 9</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G35" s="24" t="inlineStr">
-        <is>
-          <t>Володя Алгебра 11</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F35" s="23" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -3495,9 +3509,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3533,54 +3547,54 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Таня Биология 6</t>
+          <t>Настя 6История2 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Оля Геометрия2 7</t>
+          <t>Ася Диспут2 7</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Ася Диспут1 8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 10</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 11</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Ася Диспут2 8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 7</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 8</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3588,36 +3602,36 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык2 11</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Лена Технология 6</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Катя История1 7</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 6</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>Гриц География 7</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 9</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История2 10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3691,98 +3705,98 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B10" s="16" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 8</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 11</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 6</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 10</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 11</t>
         </is>
       </c>
     </row>
@@ -3851,98 +3865,98 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык1 11</t>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>Оля Геометрия 7</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История1 8</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 10</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык2 11</t>
+      <c r="B16" s="22" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
+        </is>
+      </c>
+      <c r="G16" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 6</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 10</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 11</t>
         </is>
       </c>
     </row>
@@ -4011,98 +4025,98 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
         <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 10</t>
+        </is>
+      </c>
+      <c r="G21" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра2 11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>Лена Технология 6</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 7</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G22" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 6</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Коля Геометрия 8</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 10</t>
-        </is>
-      </c>
-      <c r="G23" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 11</t>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 8</t>
+        </is>
+      </c>
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 11</t>
         </is>
       </c>
     </row>
@@ -4171,98 +4185,98 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность2 6</t>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F27" s="10" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Ася МХК 7</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 8</t>
+        </is>
+      </c>
+      <c r="E27" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 10</t>
+        </is>
+      </c>
+      <c r="G27" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра1 11</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C28" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F28" s="22" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G28" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика1 8</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F28" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
+        </is>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 8</t>
-        </is>
-      </c>
-      <c r="E29" s="20" t="inlineStr">
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 8</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
-        </is>
-      </c>
-      <c r="G29" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 11</t>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
+        </is>
+      </c>
+      <c r="G29" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -4331,9 +4345,9 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Гриц СР 6</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4346,83 +4360,83 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="18" t="inlineStr">
+      <c r="E33" s="23" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E34" s="23" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="21" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 7</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F34" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
-        </is>
-      </c>
-      <c r="G34" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="23" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E35" s="18" t="inlineStr">
-        <is>
-          <t>Денис Мататематический анализ 9</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G35" s="24" t="inlineStr">
-        <is>
-          <t>Володя Алгебра 11</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F35" s="23" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
@@ -4464,9 +4478,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский2 7</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4512,54 +4526,54 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Таня Биология 6</t>
+          <t>Настя 6История2 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Оля Геометрия2 7</t>
+          <t>Ася Диспут2 7</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Ася Диспут1 8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 10</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 11</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгебра1 7</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Ася Диспут2 8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>ОК Информатика 6</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 7</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 8</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -4567,36 +4581,36 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="G4" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык2 11</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Лена Технология 6</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Катя История1 7</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 6</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>Гриц География 7</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>Соня Словесность1 8</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 9</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История2 10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -4670,98 +4684,98 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Геометрия 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность1 6</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Оля Геометрия1 7</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 8</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="B10" s="16" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 8</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 11</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 6</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C11" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="18" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E11" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 9</t>
+        </is>
+      </c>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 10</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика2 11</t>
         </is>
       </c>
     </row>
@@ -4830,98 +4844,98 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык1 11</t>
+      <c r="B15" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>Оля Геометрия 7</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Настя 8История1 8</t>
+        </is>
+      </c>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 10</t>
+        </is>
+      </c>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Оля Algebra 7</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 8</t>
-        </is>
-      </c>
-      <c r="E16" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F16" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 10</t>
-        </is>
-      </c>
-      <c r="G16" s="12" t="inlineStr">
-        <is>
-          <t>Соня Русский язык2 11</t>
+      <c r="B16" s="22" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>ЕВ Физ-ра 7</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика2 8</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F16" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
+        </is>
+      </c>
+      <c r="G16" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Настя История1 6</t>
-        </is>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 6</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 8</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Коля Алгебра 9</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 10</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>Крок Химия 11</t>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский2 11</t>
         </is>
       </c>
     </row>
@@ -4990,98 +5004,98 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Оля Алгоритмика 6</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 7</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>Гриц География 8</t>
+      <c r="B21" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра2 7</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 8</t>
         </is>
       </c>
       <c r="E21" s="15" t="inlineStr">
         <is>
-          <t>Слава физика 9</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 10</t>
+        </is>
+      </c>
+      <c r="G21" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра2 11</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
+      <c r="B22" s="26" t="inlineStr">
+        <is>
+          <t>Лена Технология 6</t>
+        </is>
+      </c>
+      <c r="C22" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 7</t>
+        </is>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
         <is>
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
-        </is>
-      </c>
-      <c r="F22" s="18" t="inlineStr">
-        <is>
-          <t>Денис спк матан 10</t>
-        </is>
-      </c>
-      <c r="G22" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 11</t>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
+        </is>
+      </c>
+      <c r="F22" s="23" t="inlineStr">
+        <is>
+          <t>Денис Геометрия 10</t>
+        </is>
+      </c>
+      <c r="G22" s="12" t="inlineStr">
+        <is>
+          <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 6</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Ася Литература 7</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Коля Геометрия 8</t>
-        </is>
-      </c>
-      <c r="E23" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F23" s="19" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика 10</t>
-        </is>
-      </c>
-      <c r="G23" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 11</t>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>Крок Информатика 7</t>
+        </is>
+      </c>
+      <c r="D23" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Химия 8</t>
+        </is>
+      </c>
+      <c r="E23" s="24" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>Маша Русский язык 10</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 11</t>
         </is>
       </c>
     </row>
@@ -5150,98 +5164,98 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>Инна Словесность2 6</t>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Оля Алгебра2 7</t>
-        </is>
-      </c>
-      <c r="D27" s="21" t="inlineStr">
-        <is>
-          <t>Андрей Проект 8</t>
-        </is>
-      </c>
-      <c r="E27" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Химия 9</t>
-        </is>
-      </c>
-      <c r="F27" s="10" t="inlineStr">
-        <is>
-          <t>Маша Русский язык 10</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>пусто</t>
+          <t>Ася МХК 7</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра1 8</t>
+        </is>
+      </c>
+      <c r="E27" s="19" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>СПК СПК 10</t>
+        </is>
+      </c>
+      <c r="G27" s="25" t="inlineStr">
+        <is>
+          <t>Володя Алгебра1 11</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Настя История2 6</t>
-        </is>
-      </c>
-      <c r="C28" s="16" t="inlineStr">
-        <is>
-          <t>ЕВ Физ-ра 7</t>
-        </is>
-      </c>
-      <c r="D28" s="20" t="inlineStr">
-        <is>
-          <t>Азамат Биология 8</t>
-        </is>
-      </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F28" s="22" t="inlineStr">
-        <is>
-          <t>Н астя Английский 10</t>
-        </is>
-      </c>
-      <c r="G28" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 11</t>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>Инна Словесность1 6</t>
+        </is>
+      </c>
+      <c r="C28" s="20" t="inlineStr">
+        <is>
+          <t>Оля Алгебра1 7</t>
+        </is>
+      </c>
+      <c r="D28" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика1 8</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F28" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
+        </is>
+      </c>
+      <c r="G28" s="9" t="inlineStr">
+        <is>
+          <t>Резеда Английский1 11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C29" s="11" t="inlineStr">
-        <is>
-          <t>Крок Информатика 7</t>
-        </is>
-      </c>
-      <c r="D29" s="13" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра 8</t>
-        </is>
-      </c>
-      <c r="E29" s="20" t="inlineStr">
+          <t>Коля Алгебра1 6</t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="inlineStr">
+        <is>
+          <t>Гриц Физика 7</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 8</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>Азамат Биология 9</t>
         </is>
       </c>
-      <c r="F29" s="7" t="inlineStr">
-        <is>
-          <t>Настя История 10</t>
-        </is>
-      </c>
-      <c r="G29" s="17" t="inlineStr">
-        <is>
-          <t>Царь Литература 11</t>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
+        </is>
+      </c>
+      <c r="G29" s="18" t="inlineStr">
+        <is>
+          <t>Крок Химия 11</t>
         </is>
       </c>
     </row>
@@ -5283,9 +5297,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C31" s="11" t="inlineStr">
+        <is>
+          <t>Н астя Английский2 7</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5310,14 +5324,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Гриц СР 6</t>
-        </is>
-      </c>
-      <c r="C33" s="6" t="inlineStr">
-        <is>
-          <t>Катя История2 7</t>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5325,83 +5339,83 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="18" t="inlineStr">
+      <c r="E33" s="23" t="inlineStr">
+        <is>
+          <t>Денис Мататематический анализ 9</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E34" s="23" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="21" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Гурам Английский 7</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность1 8</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F34" s="18" t="inlineStr">
-        <is>
-          <t>Денис Геометрия 10</t>
-        </is>
-      </c>
-      <c r="G34" s="14" t="inlineStr">
-        <is>
-          <t>Резеда Английский 11</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="23" t="inlineStr">
-        <is>
-          <t>ОК Информатика 6</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <t>Гриц Физика 7</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>Соня Словесность2 8</t>
-        </is>
-      </c>
-      <c r="E35" s="18" t="inlineStr">
-        <is>
-          <t>Денис Мататематический анализ 9</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Таня Биология 10</t>
-        </is>
-      </c>
-      <c r="G35" s="24" t="inlineStr">
-        <is>
-          <t>Володя Алгебра 11</t>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F35" s="23" t="inlineStr">
+        <is>
+          <t>Денис спк матан 10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
     </row>

--- a/timetables.xlsx
+++ b/timetables.xlsx
@@ -39,14 +39,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC00FF"/>
-        <bgColor rgb="FFCC00FF"/>
+        <fgColor rgb="FF0066FF"/>
+        <bgColor rgb="FF0066FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFF99CC"/>
+        <fgColor rgb="FFCC00FF"/>
+        <bgColor rgb="FFCC00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -63,14 +63,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CC00"/>
-        <bgColor rgb="FF99CC00"/>
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor rgb="FF008000"/>
+        <fgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -87,8 +87,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -99,8 +99,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0066FF"/>
-        <bgColor rgb="FF0066FF"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -129,14 +129,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor rgb="FF00FFFF"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -171,14 +171,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAAAAAA"/>
-        <bgColor rgb="FFAAAAAA"/>
+        <fgColor rgb="FF996633"/>
+        <bgColor rgb="FF996633"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF996633"/>
-        <bgColor rgb="FF996633"/>
+        <fgColor rgb="FFAAAAAA"/>
+        <bgColor rgb="FFAAAAAA"/>
       </patternFill>
     </fill>
     <fill>
@@ -209,29 +209,29 @@
   <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="26" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="18" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="26" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="17" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="19" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="25" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="22" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="14" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="15" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="16" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="13" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="23" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="25" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="24" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="21" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="27" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -610,7 +610,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Настя 6История2 6</t>
+          <t>Коля Алгебра1 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -620,12 +620,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Коля Геометрия 8</t>
+          <t>Настя 8История1 8</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Алекс Методология 9</t>
+          <t>Алекс Геометрия 9</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -660,12 +660,12 @@
           <t>ЕВ Физ-ра 9</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>Н астя Английский1 10</t>
-        </is>
-      </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык2 11</t>
         </is>
@@ -677,22 +677,22 @@
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>Гриц География 7</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Соня Словесность1 8</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 9</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Настя 10История2 10</t>
         </is>
@@ -768,44 +768,44 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="14" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Инна Словесность2 6</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Ася Диспут1 7</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Настя 8История2 8</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика1 10</t>
-        </is>
-      </c>
-      <c r="G9" s="15" t="inlineStr">
-        <is>
-          <t>Царь История2 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="16" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский2 7</t>
         </is>
@@ -815,14 +815,14 @@
           <t>Резеда Английский1 8</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr">
@@ -832,22 +832,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 9</t>
         </is>
@@ -928,24 +928,24 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский2 6</t>
-        </is>
-      </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
         <is>
           <t>Оля Геометрия 7</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Настя 8История1 8</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr">
-        <is>
-          <t>Полина Информатика 9</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -953,16 +953,16 @@
           <t>Алекс Методология 10</t>
         </is>
       </c>
-      <c r="G15" s="15" t="inlineStr">
+      <c r="G15" s="14" t="inlineStr">
         <is>
           <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="22" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -970,51 +970,51 @@
           <t>ЕВ Физ-ра 7</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика2 8</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 9</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия2 10</t>
-        </is>
-      </c>
-      <c r="G16" s="23" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 6</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 8</t>
-        </is>
-      </c>
-      <c r="E17" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика2 9</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Настя 10История1 10</t>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
         </is>
       </c>
       <c r="G17" s="9" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский1 6</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра2 7</t>
         </is>
@@ -1103,9 +1103,9 @@
           <t>Азамат Биология 8</t>
         </is>
       </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -1125,7 +1125,7 @@
           <t>Лена Технология 6</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский1 7</t>
         </is>
@@ -1140,39 +1140,39 @@
           <t>Катя История 9</t>
         </is>
       </c>
-      <c r="F22" s="23" t="inlineStr">
+      <c r="F22" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 10</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 7</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 8</t>
         </is>
       </c>
-      <c r="E23" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика1 9</t>
-        </is>
-      </c>
-      <c r="F23" s="17" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 9</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>Маша Русский язык 10</t>
         </is>
@@ -1248,9 +1248,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Настя 6История1 6</t>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -1263,12 +1263,12 @@
           <t>Алекс Алгебра1 8</t>
         </is>
       </c>
-      <c r="E27" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 10</t>
         </is>
@@ -1285,24 +1285,24 @@
           <t>Инна Словесность1 6</t>
         </is>
       </c>
-      <c r="C28" s="20" t="inlineStr">
+      <c r="C28" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра1 7</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика1 8</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 9</t>
-        </is>
-      </c>
-      <c r="F28" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия1 10</t>
+      <c r="E28" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
         </is>
       </c>
       <c r="G28" s="9" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 7</t>
         </is>
@@ -1327,17 +1327,17 @@
           <t>Ася Литература 8</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Азамат Биология 9</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 10</t>
-        </is>
-      </c>
-      <c r="G29" s="18" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G29" s="16" t="inlineStr">
         <is>
           <t>Крок Химия 11</t>
         </is>
@@ -1423,7 +1423,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="23" t="inlineStr">
+      <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Денис Мататематический анализ 9</t>
         </is>
@@ -1455,7 +1455,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E34" s="23" t="inlineStr">
+      <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
@@ -1492,7 +1492,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="F35" s="23" t="inlineStr">
+      <c r="F35" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 10</t>
         </is>
@@ -1589,7 +1589,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Настя 6История2 6</t>
+          <t>Коля Алгебра1 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Коля Геометрия 8</t>
+          <t>Настя 8История1 8</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Алекс Методология 9</t>
+          <t>Алекс Геометрия 9</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -1639,12 +1639,12 @@
           <t>ЕВ Физ-ра 9</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>Н астя Английский1 10</t>
-        </is>
-      </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык2 11</t>
         </is>
@@ -1656,22 +1656,22 @@
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>Гриц География 7</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Соня Словесность1 8</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 9</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Настя 10История2 10</t>
         </is>
@@ -1747,44 +1747,44 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="14" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Инна Словесность2 6</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Ася Диспут1 7</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Настя 8История2 8</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика1 10</t>
-        </is>
-      </c>
-      <c r="G9" s="15" t="inlineStr">
-        <is>
-          <t>Царь История2 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="16" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский1 7</t>
         </is>
@@ -1794,14 +1794,14 @@
           <t>Резеда Английский1 8</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr">
@@ -1811,22 +1811,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 9</t>
         </is>
@@ -1907,24 +1907,24 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский2 6</t>
-        </is>
-      </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
         <is>
           <t>Оля Геометрия 7</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Настя 8История1 8</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr">
-        <is>
-          <t>Полина Информатика 9</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -1932,16 +1932,16 @@
           <t>Алекс Методология 10</t>
         </is>
       </c>
-      <c r="G15" s="15" t="inlineStr">
+      <c r="G15" s="14" t="inlineStr">
         <is>
           <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="22" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -1949,51 +1949,51 @@
           <t>ЕВ Физ-ра 7</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика2 8</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 9</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия2 10</t>
-        </is>
-      </c>
-      <c r="G16" s="23" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 6</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 8</t>
-        </is>
-      </c>
-      <c r="E17" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика2 9</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Настя 10История1 10</t>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
         </is>
       </c>
       <c r="G17" s="9" t="inlineStr">
@@ -2067,12 +2067,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский1 6</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра2 7</t>
         </is>
@@ -2082,9 +2082,9 @@
           <t>Азамат Биология 8</t>
         </is>
       </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -2104,7 +2104,7 @@
           <t>Лена Технология 6</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский2 7</t>
         </is>
@@ -2119,39 +2119,39 @@
           <t>Катя История 9</t>
         </is>
       </c>
-      <c r="F22" s="23" t="inlineStr">
+      <c r="F22" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 10</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 7</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 8</t>
         </is>
       </c>
-      <c r="E23" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика1 9</t>
-        </is>
-      </c>
-      <c r="F23" s="17" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 9</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>Маша Русский язык 10</t>
         </is>
@@ -2227,9 +2227,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Настя 6История1 6</t>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -2242,12 +2242,12 @@
           <t>Алекс Алгебра1 8</t>
         </is>
       </c>
-      <c r="E27" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 10</t>
         </is>
@@ -2264,24 +2264,24 @@
           <t>Инна Словесность1 6</t>
         </is>
       </c>
-      <c r="C28" s="20" t="inlineStr">
+      <c r="C28" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра1 7</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика1 8</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 9</t>
-        </is>
-      </c>
-      <c r="F28" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия1 10</t>
+      <c r="E28" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
         </is>
       </c>
       <c r="G28" s="9" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 7</t>
         </is>
@@ -2306,17 +2306,17 @@
           <t>Ася Литература 8</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Азамат Биология 9</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 10</t>
-        </is>
-      </c>
-      <c r="G29" s="18" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G29" s="16" t="inlineStr">
         <is>
           <t>Крок Химия 11</t>
         </is>
@@ -2402,7 +2402,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="23" t="inlineStr">
+      <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Денис Мататематический анализ 9</t>
         </is>
@@ -2434,7 +2434,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E34" s="23" t="inlineStr">
+      <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
@@ -2471,7 +2471,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="F35" s="23" t="inlineStr">
+      <c r="F35" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 10</t>
         </is>
@@ -2568,7 +2568,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Настя 6История2 6</t>
+          <t>Коля Алгебра1 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Коля Геометрия 8</t>
+          <t>Настя 8История1 8</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Алекс Методология 9</t>
+          <t>Алекс Геометрия 9</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -2618,12 +2618,12 @@
           <t>ЕВ Физ-ра 9</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский1 10</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык2 11</t>
         </is>
@@ -2635,22 +2635,22 @@
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>Гриц География 7</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Соня Словесность1 8</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 9</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Настя 10История2 10</t>
         </is>
@@ -2726,44 +2726,44 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="14" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Инна Словесность2 6</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Ася Диспут1 7</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Настя 8История2 8</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика1 10</t>
-        </is>
-      </c>
-      <c r="G9" s="15" t="inlineStr">
-        <is>
-          <t>Царь История2 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="16" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский2 7</t>
         </is>
@@ -2773,14 +2773,14 @@
           <t>Резеда Английский1 8</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr">
@@ -2790,22 +2790,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 9</t>
         </is>
@@ -2886,24 +2886,24 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский2 6</t>
-        </is>
-      </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
         <is>
           <t>Оля Геометрия 7</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Настя 8История1 8</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr">
-        <is>
-          <t>Полина Информатика 9</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -2911,16 +2911,16 @@
           <t>Алекс Методология 10</t>
         </is>
       </c>
-      <c r="G15" s="15" t="inlineStr">
+      <c r="G15" s="14" t="inlineStr">
         <is>
           <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="22" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -2928,51 +2928,51 @@
           <t>ЕВ Физ-ра 7</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика2 8</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 9</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия2 10</t>
-        </is>
-      </c>
-      <c r="G16" s="23" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 6</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 8</t>
-        </is>
-      </c>
-      <c r="E17" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика2 9</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Настя 10История1 10</t>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
         </is>
       </c>
       <c r="G17" s="9" t="inlineStr">
@@ -3046,12 +3046,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский1 6</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра2 7</t>
         </is>
@@ -3061,9 +3061,9 @@
           <t>Азамат Биология 8</t>
         </is>
       </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -3083,7 +3083,7 @@
           <t>Лена Технология 6</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский1 7</t>
         </is>
@@ -3093,44 +3093,44 @@
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="F22" s="23" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
+        </is>
+      </c>
+      <c r="F22" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 10</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 7</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 8</t>
         </is>
       </c>
-      <c r="E23" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика1 9</t>
-        </is>
-      </c>
-      <c r="F23" s="17" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 9</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>Маша Русский язык 10</t>
         </is>
@@ -3206,9 +3206,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Настя 6История1 6</t>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
           <t>Алекс Алгебра1 8</t>
         </is>
       </c>
-      <c r="E27" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 10</t>
         </is>
@@ -3243,24 +3243,24 @@
           <t>Инна Словесность1 6</t>
         </is>
       </c>
-      <c r="C28" s="20" t="inlineStr">
+      <c r="C28" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра1 7</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика1 8</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 9</t>
-        </is>
-      </c>
-      <c r="F28" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия1 10</t>
+      <c r="E28" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
         </is>
       </c>
       <c r="G28" s="9" t="inlineStr">
@@ -3270,12 +3270,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 7</t>
         </is>
@@ -3285,17 +3285,17 @@
           <t>Ася Литература 8</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Азамат Биология 9</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 10</t>
-        </is>
-      </c>
-      <c r="G29" s="18" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G29" s="16" t="inlineStr">
         <is>
           <t>Крок Химия 11</t>
         </is>
@@ -3381,7 +3381,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="23" t="inlineStr">
+      <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Денис Мататематический анализ 9</t>
         </is>
@@ -3413,7 +3413,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E34" s="23" t="inlineStr">
+      <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
@@ -3450,7 +3450,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="F35" s="23" t="inlineStr">
+      <c r="F35" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 10</t>
         </is>
@@ -3509,9 +3509,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3547,7 +3547,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Настя 6История2 6</t>
+          <t>Коля Алгебра1 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Коля Геометрия 8</t>
+          <t>Настя 8История1 8</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Алекс Методология 9</t>
+          <t>Алекс Геометрия 9</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -3597,12 +3597,12 @@
           <t>ЕВ Физ-ра 9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>пусто</t>
-        </is>
-      </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык2 11</t>
         </is>
@@ -3614,22 +3614,22 @@
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>Гриц География 7</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Соня Словесность1 8</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 9</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Настя 10История2 10</t>
         </is>
@@ -3705,46 +3705,46 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="14" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Инна Словесность2 6</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Ася Диспут1 7</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Настя 8История2 8</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика1 10</t>
-        </is>
-      </c>
-      <c r="G9" s="15" t="inlineStr">
-        <is>
-          <t>Царь История2 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="16" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 7</t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
@@ -3752,14 +3752,14 @@
           <t>Резеда Английский1 8</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>Н астя Английский1 10</t>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr">
@@ -3769,22 +3769,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 9</t>
         </is>
@@ -3865,24 +3865,24 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский2 6</t>
-        </is>
-      </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
         <is>
           <t>Оля Геометрия 7</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Настя 8История1 8</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr">
-        <is>
-          <t>Полина Информатика 9</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -3890,16 +3890,16 @@
           <t>Алекс Методология 10</t>
         </is>
       </c>
-      <c r="G15" s="15" t="inlineStr">
+      <c r="G15" s="14" t="inlineStr">
         <is>
           <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="22" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -3907,51 +3907,51 @@
           <t>ЕВ Физ-ра 7</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика2 8</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 9</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия2 10</t>
-        </is>
-      </c>
-      <c r="G16" s="23" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 6</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 8</t>
-        </is>
-      </c>
-      <c r="E17" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика2 9</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Настя 10История1 10</t>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
         </is>
       </c>
       <c r="G17" s="9" t="inlineStr">
@@ -4025,12 +4025,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский1 6</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра2 7</t>
         </is>
@@ -4040,9 +4040,9 @@
           <t>Азамат Биология 8</t>
         </is>
       </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -4062,9 +4062,9 @@
           <t>Лена Технология 6</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
-        <is>
-          <t>Н астя Английский1 7</t>
+      <c r="C22" s="15" t="inlineStr">
+        <is>
+          <t>Н астя Английский2 7</t>
         </is>
       </c>
       <c r="D22" s="10" t="inlineStr">
@@ -4077,39 +4077,39 @@
           <t>Катя История 9</t>
         </is>
       </c>
-      <c r="F22" s="23" t="inlineStr">
+      <c r="F22" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 10</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 7</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 8</t>
         </is>
       </c>
-      <c r="E23" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика1 9</t>
-        </is>
-      </c>
-      <c r="F23" s="17" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 9</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>Маша Русский язык 10</t>
         </is>
@@ -4185,9 +4185,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Настя 6История1 6</t>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -4200,12 +4200,12 @@
           <t>Алекс Алгебра1 8</t>
         </is>
       </c>
-      <c r="E27" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 10</t>
         </is>
@@ -4222,24 +4222,24 @@
           <t>Инна Словесность1 6</t>
         </is>
       </c>
-      <c r="C28" s="20" t="inlineStr">
+      <c r="C28" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра1 7</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика1 8</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 9</t>
-        </is>
-      </c>
-      <c r="F28" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия1 10</t>
+      <c r="E28" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
         </is>
       </c>
       <c r="G28" s="9" t="inlineStr">
@@ -4249,12 +4249,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 7</t>
         </is>
@@ -4264,17 +4264,17 @@
           <t>Ася Литература 8</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Азамат Биология 9</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 10</t>
-        </is>
-      </c>
-      <c r="G29" s="18" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G29" s="16" t="inlineStr">
         <is>
           <t>Крок Химия 11</t>
         </is>
@@ -4360,7 +4360,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="23" t="inlineStr">
+      <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Денис Мататематический анализ 9</t>
         </is>
@@ -4392,7 +4392,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E34" s="23" t="inlineStr">
+      <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
@@ -4429,7 +4429,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="F35" s="23" t="inlineStr">
+      <c r="F35" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 10</t>
         </is>
@@ -4478,9 +4478,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C37" s="11" t="inlineStr">
-        <is>
-          <t>Н астя Английский2 7</t>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4526,7 +4526,7 @@
     <row r="3">
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Настя 6История2 6</t>
+          <t>Коля Алгебра1 6</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -4536,12 +4536,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Коля Геометрия 8</t>
+          <t>Настя 8История1 8</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>Алекс Методология 9</t>
+          <t>Алекс Геометрия 9</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
@@ -4581,7 +4581,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G4" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык2 11</t>
         </is>
@@ -4593,22 +4593,22 @@
           <t>ЕВ Физ-ра 6</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>Гриц География 7</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Соня Словесность1 8</t>
         </is>
       </c>
-      <c r="E5" s="14" t="inlineStr">
+      <c r="E5" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 9</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Настя 10История2 10</t>
         </is>
@@ -4684,46 +4684,46 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История2 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Ася Диспут1 7</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 8</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Инна Русский язык 9</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>ЮрНик Физика1 10</t>
+        </is>
+      </c>
+      <c r="G9" s="14" t="inlineStr">
+        <is>
+          <t>Царь История2 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Инна Словесность2 6</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Ася Диспут1 7</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>Настя 8История2 8</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Геометрия 9</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>ЮрНик Физика1 10</t>
-        </is>
-      </c>
-      <c r="G9" s="15" t="inlineStr">
-        <is>
-          <t>Царь История2 11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="16" t="inlineStr">
-        <is>
-          <t>Андрей География 6</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>Н астя Английский2 7</t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
@@ -4731,14 +4731,14 @@
           <t>Резеда Английский1 8</t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
-        <is>
-          <t>Инна Русский язык 9</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>Н астя Английский1 10</t>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 9</t>
+        </is>
+      </c>
+      <c r="F10" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия2 10</t>
         </is>
       </c>
       <c r="G10" s="10" t="inlineStr">
@@ -4748,22 +4748,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Ася Литература 6</t>
-        </is>
-      </c>
-      <c r="C11" s="17" t="inlineStr">
+      <c r="B11" s="17" t="inlineStr">
+        <is>
+          <t>Таня Биология 6</t>
+        </is>
+      </c>
+      <c r="C11" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность2 7</t>
         </is>
       </c>
-      <c r="D11" s="18" t="inlineStr">
+      <c r="D11" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 8</t>
         </is>
       </c>
-      <c r="E11" s="13" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 9</t>
         </is>
@@ -4844,24 +4844,24 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский2 6</t>
-        </is>
-      </c>
-      <c r="C15" s="20" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Настя 6История1 6</t>
+        </is>
+      </c>
+      <c r="C15" s="19" t="inlineStr">
         <is>
           <t>Оля Геометрия 7</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Настя 8История1 8</t>
-        </is>
-      </c>
-      <c r="E15" s="21" t="inlineStr">
-        <is>
-          <t>Полина Информатика 9</t>
+          <t>Коля Геометрия 8</t>
+        </is>
+      </c>
+      <c r="E15" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский 9</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -4869,16 +4869,16 @@
           <t>Алекс Методология 10</t>
         </is>
       </c>
-      <c r="G15" s="15" t="inlineStr">
+      <c r="G15" s="14" t="inlineStr">
         <is>
           <t>Царь Истоиия1 11</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="22" t="inlineStr">
-        <is>
-          <t>Таня Биология 6</t>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>Андрей География 6</t>
         </is>
       </c>
       <c r="C16" s="10" t="inlineStr">
@@ -4886,51 +4886,51 @@
           <t>ЕВ Физ-ра 7</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика2 8</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 9</t>
-        </is>
-      </c>
-      <c r="F16" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия2 10</t>
-        </is>
-      </c>
-      <c r="G16" s="23" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра1 9</t>
+        </is>
+      </c>
+      <c r="F16" s="15" t="inlineStr">
+        <is>
+          <t>Н астя Английский1 10</t>
+        </is>
+      </c>
+      <c r="G16" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 11</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 6</t>
         </is>
       </c>
-      <c r="C17" s="17" t="inlineStr">
+      <c r="C17" s="18" t="inlineStr">
         <is>
           <t>Маша Словесность1 7</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 8</t>
-        </is>
-      </c>
-      <c r="E17" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика2 9</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Настя 10История1 10</t>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>Настя 8История2 8</t>
+        </is>
+      </c>
+      <c r="E17" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика1 9</t>
+        </is>
+      </c>
+      <c r="F17" s="16" t="inlineStr">
+        <is>
+          <t>Крок Химия1 10</t>
         </is>
       </c>
       <c r="G17" s="9" t="inlineStr">
@@ -5004,12 +5004,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский1 6</t>
-        </is>
-      </c>
-      <c r="C21" s="20" t="inlineStr">
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский2 6</t>
+        </is>
+      </c>
+      <c r="C21" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра2 7</t>
         </is>
@@ -5019,9 +5019,9 @@
           <t>Азамат Биология 8</t>
         </is>
       </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>Царь Литература 9</t>
+      <c r="E21" s="24" t="inlineStr">
+        <is>
+          <t>Полина Информатика 9</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -5041,7 +5041,7 @@
           <t>Лена Технология 6</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>Н астя Английский1 7</t>
         </is>
@@ -5051,44 +5051,44 @@
           <t>ЕВ Физ-ра 8</t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr">
-        <is>
-          <t>Катя История 9</t>
-        </is>
-      </c>
-      <c r="F22" s="23" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>пусто</t>
+        </is>
+      </c>
+      <c r="F22" s="22" t="inlineStr">
         <is>
           <t>Денис Геометрия 10</t>
         </is>
       </c>
-      <c r="G22" s="12" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>Соня Русский Язык1 11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра2 6</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Ася Литература 6</t>
+        </is>
+      </c>
+      <c r="C23" s="16" t="inlineStr">
         <is>
           <t>Крок Информатика 7</t>
         </is>
       </c>
-      <c r="D23" s="13" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>Гриц Химия 8</t>
         </is>
       </c>
-      <c r="E23" s="24" t="inlineStr">
-        <is>
-          <t>Слава физика1 9</t>
-        </is>
-      </c>
-      <c r="F23" s="17" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>Азамат Биология 9</t>
+        </is>
+      </c>
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>Маша Русский язык 10</t>
         </is>
@@ -5164,9 +5164,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Настя 6История1 6</t>
+      <c r="B27" s="20" t="inlineStr">
+        <is>
+          <t>Гурам Английский1 6</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -5179,12 +5179,12 @@
           <t>Алекс Алгебра1 8</t>
         </is>
       </c>
-      <c r="E27" s="19" t="inlineStr">
-        <is>
-          <t>Гурам Английский 9</t>
-        </is>
-      </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>Царь Литература 9</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>СПК СПК 10</t>
         </is>
@@ -5201,24 +5201,24 @@
           <t>Инна Словесность1 6</t>
         </is>
       </c>
-      <c r="C28" s="20" t="inlineStr">
+      <c r="C28" s="19" t="inlineStr">
         <is>
           <t>Оля Алгебра1 7</t>
         </is>
       </c>
-      <c r="D28" s="13" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика1 8</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 9</t>
-        </is>
-      </c>
-      <c r="F28" s="18" t="inlineStr">
-        <is>
-          <t>Крок Химия1 10</t>
+      <c r="E28" s="23" t="inlineStr">
+        <is>
+          <t>Слава физика2 9</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Алгебра2 10</t>
         </is>
       </c>
       <c r="G28" s="9" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>Коля Алгебра1 6</t>
-        </is>
-      </c>
-      <c r="C29" s="13" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Коля Алгебра2 6</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
         <is>
           <t>Гриц Физика 7</t>
         </is>
@@ -5243,17 +5243,17 @@
           <t>Ася Литература 8</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>Азамат Биология 9</t>
-        </is>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Алекс Алгебра2 10</t>
-        </is>
-      </c>
-      <c r="G29" s="18" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>Алекс Методология 9</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Настя 10История1 10</t>
+        </is>
+      </c>
+      <c r="G29" s="16" t="inlineStr">
         <is>
           <t>Крок Химия 11</t>
         </is>
@@ -5297,9 +5297,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr">
-        <is>
-          <t>Н астя Английский2 7</t>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>пусто</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5339,7 +5339,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E33" s="23" t="inlineStr">
+      <c r="E33" s="22" t="inlineStr">
         <is>
           <t>Денис Мататематический анализ 9</t>
         </is>
@@ -5371,7 +5371,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E34" s="23" t="inlineStr">
+      <c r="E34" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 9</t>
         </is>
@@ -5408,7 +5408,7 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="F35" s="23" t="inlineStr">
+      <c r="F35" s="22" t="inlineStr">
         <is>
           <t>Денис спк матан 10</t>
         </is>
@@ -5467,9 +5467,9 @@
           <t>пусто</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>пусто</t>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Катя История 9</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
